--- a/Tutorials/Tut 6 matrix.xlsx
+++ b/Tutorials/Tut 6 matrix.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <r>
       <t>5 (O</t>
@@ -50,6 +50,9 @@
       </rPr>
       <t>)</t>
     </r>
+  </si>
+  <si>
+    <t>Row</t>
   </si>
 </sst>
 </file>
@@ -389,7 +392,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -398,7 +401,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="2"/>
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="B1" s="2">
         <v>0</v>
       </c>
@@ -419,7 +424,9 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
       <c r="B2" s="1">
         <v>0.2</v>
       </c>
@@ -440,7 +447,9 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
       <c r="B3" s="1">
         <v>0.8</v>
       </c>
@@ -461,7 +470,9 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
       <c r="B4" s="1">
         <v>-0.2</v>
       </c>
@@ -482,7 +493,9 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
       <c r="B5" s="1">
         <v>0.55000000000000004</v>
       </c>
